--- a/ValOC_Ciudad de México Leg_99 Envio_99 R -24-04-25.xlsx.xlsx
+++ b/ValOC_Ciudad de México Leg_99 Envio_99 R -24-04-25.xlsx.xlsx
@@ -23,87 +23,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="63">
   <si>
     <t/>
   </si>
   <si>
-    <t>DATOS GENERALES</t>
-  </si>
-  <si>
-    <t>No. Envío</t>
+    <t xml:space="preserve">Personas Legisladoras </t>
+  </si>
+  <si>
+    <t>ID_persona_legisladora</t>
   </si>
   <si>
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Las fechas para este periodo legislativo ya fueron registradas en la base de datos en envío anterior. (fecha_inicio_informacion_reportada, fecha_termino_informacion_reportada )</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMISIONES LEGISLATIVAS </t>
-  </si>
-  <si>
-    <t>ID_comision_legislativa</t>
-  </si>
-  <si>
     <t>ID_ENTIDAD</t>
   </si>
   <si>
     <t>JUSTIFICACION</t>
   </si>
   <si>
-    <t>COM_ORD_09_9</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo P1_2_2-C(consecutivo_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
+    <t>LACG1986H</t>
+  </si>
+  <si>
+    <t>Se debe de capturar el campo P1_3_15-P(ID_persona_legisladora_propietaria) o P1_3_16-Q(nombre_persona_legisladora_propietaria) debido a que se selecciono  la categoría "Suplente" '2' en la columna P1_3_14-O(caracter_cargo_persona_legisladora)</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>COM_ORD_99_99</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo  P1_2_3-D(nombre_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo P1_2_4-E(tipo_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo P1_2_6-G(tema_1_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo P1_2_12-M(cant_integrantes_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo 1_2_13-N(cond_celebracion_reuniones_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo P1_2_18-S(cant_iniciativas_turnadas_a_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
-  </si>
-  <si>
-    <t>Se debe capturar el campo P1_2_19-T(cant_dictamenes_emitidos_por_comision_legislativa) debido a que es un campo obligatorio y debe contener información.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personas Legisladoras </t>
+    <t>Se debe de captura el campo P1_3_35-AJ(distrito_electoral_mayoria_relativa) debido a que en la columna P1_3_34-AI(forma_eleccion_persona_legisladora) se selecciono "Mayoría relativa"'1'</t>
+  </si>
+  <si>
+    <t>Se debe de capturar el campo P1_3_36-AK(tipo_candidatura_persona_legisladora) debido a que el campo  P1_3_34-AI(forma_eleccion_persona_legisladora) se selecciono "Mayoría relativa"'1'</t>
+  </si>
+  <si>
+    <t>No debe de capturar el campo P1_3_36-AK(tipo_candidatura_persona_legisladora) debido a que el campo  P1_3_34-AI(forma_eleccion_persona_legisladora) se selecciono "Mayoría relativa"'1'</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_47-AV(grupo_parlamentario_adscipcion_final_persona_legisladora) debido a que en la columna P1_3_46-AU(tipo_adscripcion_final_persona_legisladora) se selecciono la categoría "Grupo parlamentario"'1'</t>
+  </si>
+  <si>
+    <t>El CAMPO P1_3_80 (ID_COMISION_LEGISLATIVA_1) (CC),P1_3_81 (NOMBRE_COMISION_LEGISLATIVA_1) (CD),P1_3_82 (CARGO_COMISION_LEGISLATIVA_1) (CE),P1_3_82 (CANT_REUNIONES_CELEBRADAS_COMISION_LEGISLATIVA_1_ASISTIDAS) (CF) No debe ser NULL</t>
+  </si>
+  <si>
+    <t>Los datos ingresados en ID_comision_legislativa :P1_3_80-CC(ID_comision_legislativa_1) y nombre_comision_legislativa :P1_3_81-CD(nombre_comision_legislativa_1) no son correctos ya que no se encuentran  en  TR_PLE_MEDS1_2(Tabla comisiones_legislativas).</t>
+  </si>
+  <si>
+    <t>Los datos ingresados en ID_comision_legislativa :P1_3_84-CG(ID_comision_legislativa_2) y nombre_comision_legislativa :P1_3_85-CH(nombre_comision_legislativa_2) no son correctos ya que no se encuentran  en  TR_PLE_MEDS1_2(Tabla comisiones_legislativas).</t>
+  </si>
+  <si>
+    <t>Los datos ingresados en ID_comision_legislativa :P1_3_88-CK(ID_comision_legislativa_3) y nombre_comision_legislativa :P1_3_89-CL(nombre_comision_legislativa_3) no son correctos ya que no se encuentran  en  TR_PLE_MEDS1_2(Tabla comisiones_legislativas).</t>
+  </si>
+  <si>
+    <t>Los datos ingresados en ID_comision_legislativa :P1_3_92-CO(ID_comision_legislativa_4) y nombre_comision_legislativa :P1_3_93-CP(nombre_comision_legislativa_4) no son correctos ya que no se encuentran  en  TR_PLE_MEDS1_2(Tabla comisiones_legislativas).</t>
+  </si>
+  <si>
+    <t>Los datos ingresados en ID_comision_legislativa :P1_3_96-CS(ID_comision_legislativa_5) y nombre_comision_legislativa :P1_3_97-CT(nombre_comision_legislativa_5) no son correctos ya que no se encuentran  en  TR_PLE_MEDS1_2(Tabla comisiones_legislativas).</t>
+  </si>
+  <si>
+    <t>Los datos ingresados en ID_comision_legislativa :P1_3_100-CW(ID_comision_legislativa_6) y nombre_comision_legislativa :P1_3_101-CX(nombre_comision_legislativa_6) no son correctos ya que no se encuentran  en  TR_PLE_MEDS1_2(Tabla comisiones_legislativas).</t>
+  </si>
+  <si>
+    <t>Los datos ingresados en ID_comision_legislativa :P1_3_104-DA(ID_comision_legislativa_7) y nombre_comision_legislativa :P1_3_105-DB(nombre_comision_legislativa_7) no son correctos ya que no se encuentran  en  TR_PLE_MEDS1_2(Tabla comisiones_legislativas).</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_1-B(ID_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_2-C(nombre_1_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_5-F(apellido_1_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_8-I(fecha_nacimiento_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_9-J(sexo_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_10-K(estatus_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_14-O(caracter_cargo_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_17-R(escolaridad_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_18-S(estatus_escolaridad_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_22-W(cond_lengua_ind_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_26-AA(cond_pueblo_ind_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_28-AC(cond_discapacidad_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_32-AG(cond_pob_diversidad_sexual_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_33-AH(cond_pob_afromexicana_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_34-AI(forma_eleccion_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_43-AR(tipo_adscripcion_inicial_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_49-AX(empleo_anterior_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_50-AY(antigüedad_servicio_publico_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_51-AZ(antigüedad_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_52-BA(cond_presentacion_declaracion_situacion_patrimonial) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_54-BC(cond_presentacion_declaracion_intereses) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_56-BE(cond_presentacion_declaracion_fiscal ) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_58-BG(remuneracion_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_59-BH(asistencia_legislativa_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_60-BI(gestion_parlamentaria_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_61-BJ(atencion_ciudadana_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_62-BK(otro_concepto_gasto_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_63-BL(cond_casa_atencion_ciudadana) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_67-BP(asist_sesiones_plenarias_persona_legisladora) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_69-BR(cond_integrante_comision_permanente) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_77-BZ(cond_integrante_mesa_directiva) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_80-CC(ID_comision_legislativa_1) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_81-CD(nombre_comision_legislativa_1) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_82-CE(cargo_comision_legislativa_1) debido a que es un campo obligatorio y debe contener información.</t>
+  </si>
+  <si>
+    <t>Se debe capturar el campo P1_3_83-CF(cant_reuniones_celebradas_comision_legislativa_1_asistidas) debido a que es un campo obligatorio y debe contener información.</t>
   </si>
   <si>
     <t xml:space="preserve">Personas legisladoras Extension </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal apoyo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INICIATIVAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciativas Extension </t>
   </si>
   <si>
     <t>INICIATIVAS URGENTE OBVIA</t>
@@ -292,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -302,40 +395,7 @@
     <col min="2" max="2" width="117.1875" customWidth="true"/>
     <col min="3" max="3" width="58.59375" customWidth="true"/>
   </cols>
-  <sheetData>
-    <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -356,7 +416,7 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -383,7 +443,7 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -411,7 +471,7 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +484,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="31.25" customWidth="true"/>
+    <col min="2" max="2" width="117.1875" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="78.125" customWidth="true"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,130 +516,130 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>0</v>
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>0</v>
@@ -569,83 +647,83 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>0</v>
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>0</v>
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>0</v>
@@ -653,83 +731,83 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>0</v>
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>0</v>
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>0</v>
@@ -737,71 +815,842 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="31.25" customWidth="true"/>
-    <col min="2" max="2" width="117.1875" customWidth="true"/>
-    <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="78.125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +1678,7 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -853,16 +1702,7 @@
     <col min="3" max="3" width="19.53125" customWidth="true"/>
     <col min="4" max="4" width="78.125" customWidth="true"/>
   </cols>
-  <sheetData>
-    <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -880,16 +1720,7 @@
     <col min="3" max="3" width="19.53125" customWidth="true"/>
     <col min="4" max="4" width="78.125" customWidth="true"/>
   </cols>
-  <sheetData>
-    <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -908,16 +1739,7 @@
     <col min="4" max="4" width="19.53125" customWidth="true"/>
     <col min="5" max="5" width="78.125" customWidth="true"/>
   </cols>
-  <sheetData>
-    <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -938,7 +1760,7 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1787,7 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
